--- a/data/email_list.xlsx
+++ b/data/email_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CQ375\Desktop\批量办公\annualreportatlas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\guozhen3\资料\06self\python-small-examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A2E70D-300A-486D-9234-36F6AB16206C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,32 +24,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>2956150544@qq.com</t>
+    <t>zhen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CQ3754@126.com</t>
+    <t>guozhennianhua@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chen</t>
+    <t>zhen2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liu</t>
+    <t>113097485@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,21 +374,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -401,26 +396,20 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EFDDC5D0-7F94-4210-8800-3800671863F9}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{5F2646AB-842A-4059-B8BD-DCD35B9D7834}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{813FDF61-AC7A-4C60-B77E-C62735E38EAB}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/email_list.xlsx
+++ b/data/email_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>zhen</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>zhen2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113097485@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +374,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -399,7 +395,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
